--- a/xlsx/费迪南·波尔舍_intext.xlsx
+++ b/xlsx/费迪南·波尔舍_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>费迪南·波尔舍</t>
   </si>
@@ -29,7 +29,7 @@
     <t>大众甲壳虫</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_费迪南·波尔舍</t>
+    <t>政策_政策_混合动力车辆_费迪南·波尔舍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>波希米亞王國</t>
+    <t>波希米亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%8EI%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>虎I戰車</t>
+    <t>虎I战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8EII%E5%9D%A6%E5%85%8B</t>
@@ -113,43 +113,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BC%8F%E9%87%8D%E9%A9%85%E9%80%90%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>象式重驅逐戰車</t>
+    <t>象式重驱逐战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%97%9D%E8%A1%93%E8%88%87%E7%A7%91%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>德國國家藝術與科學獎</t>
+    <t>德国国家艺术与科学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%8A%9F%E5%8D%81%E5%AD%97%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>戰功十字勳章</t>
+    <t>战功十字勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
+    <t>波希米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大眾汽車</t>
+    <t>大众汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E8%9F%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>甲蟲車</t>
+    <t>甲虫车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E8%BF%AA%E5%8D%97%E5%BE%B7%C2%B7%E5%AE%89%E4%B8%9C%C2%B7%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E6%B3%A2%E5%B0%94%E8%88%8D</t>
@@ -179,19 +176,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABB</t>
@@ -209,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動機</t>
+    <t>电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%87%8C</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Austro-Daimler</t>
@@ -239,9 +233,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E5%8A%A0%E7%89%B9</t>
   </si>
   <si>
-    <t>斯圖加特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92%E5%8F%91%E5%8A%A8%E6%9C%BA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -251,19 +242,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E5%8A%A0%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯圖加特大學</t>
+    <t>斯图加特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%B9%B3%E5%AF%B9%E7%BD%AE%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -311,13 +302,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E8%99%9F%E6%88%B0%E8%BB%8A%E9%BC%A0%E5%BC%8F</t>
   </si>
   <si>
-    <t>八號戰車鼠式</t>
+    <t>八号战车鼠式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Porsche_356</t>
@@ -329,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%A2%A8</t>
   </si>
   <si>
-    <t>中風</t>
+    <t>中风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -353,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -365,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%89%BA%E6%9C%AF%E5%8E%86%E5%8F%B2%E5%AD%A6%E9%99%A2</t>
@@ -1349,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1375,10 +1366,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1404,10 +1395,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1433,10 +1424,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1462,10 +1453,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1491,10 +1482,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1520,10 +1511,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
         <v>19</v>
@@ -1549,10 +1540,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1578,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1607,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1636,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1665,10 +1656,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1694,10 +1685,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1723,10 +1714,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1752,10 +1743,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -1781,10 +1772,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1810,10 +1801,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -1839,10 +1830,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1868,10 +1859,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1897,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1926,10 +1917,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1955,10 +1946,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1984,10 +1975,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2013,10 +2004,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2042,10 +2033,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>10</v>
@@ -2071,10 +2062,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2100,10 +2091,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2129,10 +2120,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2158,10 +2149,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2187,10 +2178,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2216,10 +2207,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2245,10 +2236,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2274,10 +2265,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2303,10 +2294,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2332,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2361,10 +2352,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2390,10 +2381,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2419,10 +2410,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2448,10 +2439,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2477,10 +2468,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2506,10 +2497,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2535,10 +2526,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2564,10 +2555,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2593,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
